--- a/docs/MIDI Nubbin BOM.xlsx
+++ b/docs/MIDI Nubbin BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Dropbox\Github\midi_nubbin\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81DEF8D-9611-4D71-80C2-44C8BF46F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E803F-AACF-4A4F-B8F6-3C8A9B74EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="675" windowWidth="14055" windowHeight="14655" xr2:uid="{E8918527-0B57-4B38-987B-335899C0840C}"/>
+    <workbookView xWindow="570" yWindow="1785" windowWidth="21795" windowHeight="13830" xr2:uid="{E8918527-0B57-4B38-987B-335899C0840C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>C1</t>
   </si>
@@ -117,6 +117,33 @@
   </si>
   <si>
     <t>Reflow</t>
+  </si>
+  <si>
+    <t>6mm flat head machine screw ultra low profile</t>
+  </si>
+  <si>
+    <t>switch hat</t>
+  </si>
+  <si>
+    <t>6mm f/f hex standoff</t>
+  </si>
+  <si>
+    <t>white 3mm acrylic 40x48mm</t>
+  </si>
+  <si>
+    <t>pcb front panel</t>
+  </si>
+  <si>
+    <t>light guides 4.6mm</t>
+  </si>
+  <si>
+    <t>5mm EVA foam 40 x 48mm</t>
+  </si>
+  <si>
+    <t>velcro hook pad 25x25mm</t>
+  </si>
+  <si>
+    <t>cut adhesive neoprene pad 40x48mm</t>
   </si>
 </sst>
 </file>
@@ -191,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -337,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C71C34-AFE9-49C5-84C4-A0334D440C8F}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,7 +649,76 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/MIDI Nubbin BOM.xlsx
+++ b/docs/MIDI Nubbin BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Dropbox\Github\midi_nubbin\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E803F-AACF-4A4F-B8F6-3C8A9B74EE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB205E9-151A-4741-97D6-8247E1690E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1785" windowWidth="21795" windowHeight="13830" xr2:uid="{E8918527-0B57-4B38-987B-335899C0840C}"/>
+    <workbookView xWindow="2685" yWindow="2430" windowWidth="21585" windowHeight="13830" xr2:uid="{E8918527-0B57-4B38-987B-335899C0840C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,12 +119,6 @@
     <t>Reflow</t>
   </si>
   <si>
-    <t>6mm flat head machine screw ultra low profile</t>
-  </si>
-  <si>
-    <t>switch hat</t>
-  </si>
-  <si>
     <t>6mm f/f hex standoff</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>pcb front panel</t>
   </si>
   <si>
-    <t>light guides 4.6mm</t>
-  </si>
-  <si>
     <t>5mm EVA foam 40 x 48mm</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>cut adhesive neoprene pad 40x48mm</t>
+  </si>
+  <si>
+    <t>light guides 3mm dia x 4mm long</t>
+  </si>
+  <si>
+    <t>m3 x 6mm x 5 dia head flat head machine screw ultra low profile</t>
+  </si>
+  <si>
+    <t>switch hat white</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/MIDI Nubbin BOM.xlsx
+++ b/docs/MIDI Nubbin BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Dropbox\Github\midi_nubbin\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB205E9-151A-4741-97D6-8247E1690E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991655B-76B7-49CD-816C-96316E062FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2430" windowWidth="21585" windowHeight="13830" xr2:uid="{E8918527-0B57-4B38-987B-335899C0840C}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21585" windowHeight="10905" xr2:uid="{E8918527-0B57-4B38-987B-335899C0840C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
